--- a/UpdateResultOzonFinds/result.xlsx
+++ b/UpdateResultOzonFinds/result.xlsx
@@ -714,9 +714,21 @@
           <t xml:space="preserve">BB20-8PU PRO </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/akkumulyator-bb20-4pub-pro-edinaya-platforma-pu-i-publ-1579937168/?asb=auiyO46o7jbpnhC6%252FA2wWCTTghXlGSRyiKby%252BE%252FFMF0%253D&amp;asb2=Dx1vUE7HPdEJ8-x41S3x5NOwb9kL6DsfyMdw1tgvbSODoWglWuWJ5zprt7pmulZa&amp;avtc=1&amp;avte=2&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/akkumulyator-brait-li-ion-20v-8-0ach-slayder-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1625607293/?asb=mXqqCM5smlq19ZjMTOIK%252Fi%252BZdDI8xLA0iP5pHTzGq18%253D&amp;asb2=4RFLdGYp3kg83N89y_lbOSxYzRFJfsSyLwjpaLD7WH7rr8Mq5lAj6S6SqYr-AmgvlQ3w_7Cl8q7BnpdZaz7MAg&amp;avtc=1&amp;avte=4&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/akkumulyator-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1579942020/?asb=6LaNJmCHYy3xK%252B4SW1u5ZTheX4bHa4k0YCwhBw2odJA%253D&amp;asb2=xNVerlOOrmteeBQ1UhL4kEyvhE_iidKLVlHycljO5-WqEacyspxoghpeCE_DvUMVYzR-wSvESIQQ380cZ8hCaw&amp;avtc=1&amp;avte=2&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -814,22 +826,86 @@
           <t>BWM-3M800</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?advert=qFNwexaXT-ESW-4a7rAHxu5toEvIK4Z0SfuFudzfjs4NlefwHDVO0kcLTZ9ngQCm3JTPn3ZpYEE63tz_GirDMEPt4RFEsi40MGO5yBeegzeBb1hjgdU5ZwRGtaqPaUs_synCwtV7T-KRny6_ro-SCmBnHHkdKfNtvJ7PB7jN2mYh-GMjp7YEJVHn2ViuEBg1_-lv2dPBHUAWWn0u2QDULpV3iX5CR0JYP9bdSnXlkWWOa6wPfDjKHWSoFG8PIT9ziLb8P8F2JKJleApItn5M_s7O8qU_vFcPwk_n4FNkFuk2l1IWWi9aoiNkxvtv93GYo1nDdHzQe6aW3ueZ6EBOjX1WsQ&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=TVjV%252BEIGKCkztq1Wcu32AS%252FsclCld76TBR4s1tpzEHQ%253D&amp;asb2=wKZtB1dHy8n70HKHnKpS1DzoLzAf_cj6eNVJYKslmxGi07XMuJprs65LrAtaE_k1JIlZNTGe5cI8l1c3AnSwGg&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?asb=H8cd01UxKwRL%252FqprY1yr8%252FLRgSb%252Fay2%252BsLJNCqI5FYY%253D&amp;asb2=edS7yXyzoETOaYchbIpw4_8XrjkOK-_bUiIpGu8zQahZGK7HidAhFvwcWIAZnUPKEdR3OeoZXlb8Hv8mi47O-A&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=Rsg4FrFHgjICcdwVqvQ0hKOas40S2LYQdHuUCCAAOzc%253D&amp;asb2=ejLJGm6TBCdPB8dVT3Qdsmck2OeeynMoLrG6U8_xOd-ScUYhYFlfc42Ooq8d2OPBEh13WvTnXiOgzAMiGlkrsQ&amp;avtc=1&amp;avte=4&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=x7jmawQIrSPRco9EGHVzV2WPv7DUhhUKefEciRu%252BW%252BI%253D&amp;asb2=Ye9qGnhbX2mBDKXBFGI9YWwn5WEJ7_HlugRP6TY7TXZAUipAw5-A6fF3nPWHxUDC-86CqTC22ZuO-sc7O1ecNA&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=SZeUYgdYeR0UfF3vVncxyC8DLmebSVD8Jv2XmvtZN1M%253D&amp;asb2=163n_c2qvyYItQxlbS2dpO8QJR0Sp7MP3_nEcjc93nBi2DNn6OqYA34l5BXNs8NZVve2Oc8DE1Ox_d8OLHi4OA&amp;avtc=1&amp;avte=4&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m1000-1000-vt-1103132277/?asb=FO7ygDxe7IGf5PPEnN8f72z5aRFAbPPAKR239uEf12c%253D&amp;asb2=hwangfHyMSOAEklCeuiopqdCb8JcqjFXXv6dNYaVsgl2vqVikKmOlnaXqtdFhaRTQyS-nq880-SC4e4J9EaCJQ&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?asb=5PpPwtYwELszhzi3POd8eBzmIImeV8rANzFL3w97nnY%253D&amp;asb2=I4eMWU49iCLl1LjO1pLeF6M_-7xcRTJxUbDnewKZQ78szuRupcRxa88eDRqv3B38oV_0G0-s1C_WrwJ6l0TIKA&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?advert=QHxjIBqo5jGcPijdHB_dnZw_BC-fwPFYjH-kxgPKiYKooArVtzH1sbbsbTgC23XWbA3wUwlUNhHBB90XLXL6eInewmUCyecliVrO4xOxAwJbejw8OLYlNTrSzrumyN3mHcXdoDDj05Pnzu0qnOEQp-IBM5c5VEipfqZv8kxww-fHbiUrfqLi5wtZOjhs5A9N_DFTqclWuHna4WyFeRA53TFH-5HslvGQtsLABWy-cgAgeB10Fla9FEAwGGnWZXYgnf_KivPPb0TEN6OMyc3sLn3dRzRDfI0WQCZpettbLO-c7Feyxynie8oH8uUmBAaNAIo5N7QtLAMz7a1i7D_e4pPLtw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=Hkm7aCPkDg2MPsPRs02orS4Rs%252B6yx1Id%252BUxWCWv4ICo%253D&amp;asb2=JabovurUu9BddwrNbO8K2bzCzihLWnYnct63kAOrJRl3hcKfsG-jK037r_g2FDVkVV2kelaq5Dvch_uHHwTpBQ&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?asb=J%252BrH5k60svYPkLBTe2f4%252Bh8ioincpgcEFbyQCWU3Seg%253D&amp;asb2=3m7z-wkoV8ZgnfS0EJ9fIPWNTQlqEsq-bCx1cZEESKadUrgWCtmomB6MbzeAcgerW3gbUQVrTadUK5vk0djXSw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=%252FnjXf7PXMOI0ch8hIP6od3CFHZ%252BKecrFG%252Fe6ydbJdlc%253D&amp;asb2=HFUqQCDS1gb9M-T2EvwWiRl_Ib5LyLF0yh9ROmPXRN5cn1udq1_Vg96GhyyIpzXzF59iObp1-L1pJbQd8smMyQ&amp;avtc=1&amp;avte=4&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=KzbZiXnBCbsTT5ISKwbJwDmaLqAQ5%252BjpoEvheWWZbOg%253D&amp;asb2=9yUOrMS8Xox_YHMqhZ76GDC-LNz8DjgDXRsvqBSTqwwmmHg6CfmyQmlWj8UhEK4kQlv6sLY3KPLiVdID8u-gKA&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=t2%252FWMA9ti7QY4VELMybIEtgh2utk%252Bd2ACTqwg8YL0Lw%253D&amp;asb2=tsPPdWigO0k1e7HBhQzLOZ4cMZYk3CSeuElW8eO1HVRzgvVQW02f7ETIu2zq0MLn3hf418Ix2UXcNzW8_C6oWA&amp;avtc=1&amp;avte=4&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m1000-1000-vt-1103132277/?asb=%252FmEyf0ucnzrW4IJnFg4EXDWKK29%252FPvNdc8fcXoFYQ2A%253D&amp;asb2=pMQUENQhBAhgjLt7ZwmStIOwKxKOJNCnxxNwbDZjF7FGqrvhEKaFyO1jUTk3A_NUoBj6exkH5WwDMqDcxhivHw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?asb=trQEeYm7%252F9%252B8E5IqlwaM8tuFkfwZS%252FtSybqKx4cJ0LE%253D&amp;asb2=OdM2Cm4m8Gkstx90CWM6FVhVSmz6qm7HIerx8M_cwThrsVtMML5n_ZPtjl6ZphQ9l1l3IQTfJZMSQ1w7IITTcQ&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>

--- a/UpdateResultOzonFinds/result.xlsx
+++ b/UpdateResultOzonFinds/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF3"/>
+  <dimension ref="A1:CP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,56 @@
       <c r="CF1" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Север-Инструмент</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Север-Инструмент Link</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Техно-Дон</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Техно-Дон Link</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Даром</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Даром Link</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Usado - Техника Для Дома И Сада!</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Usado - Техника Для Дома И Сада! Link</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Прораб</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Прораб Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -716,19 +766,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/akkumulyator-bb20-4pub-pro-edinaya-platforma-pu-i-publ-1579937168/?asb=auiyO46o7jbpnhC6%252FA2wWCTTghXlGSRyiKby%252BE%252FFMF0%253D&amp;asb2=Dx1vUE7HPdEJ8-x41S3x5NOwb9kL6DsfyMdw1tgvbSODoWglWuWJ5zprt7pmulZa&amp;avtc=1&amp;avte=2&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
+          <t>https://www.ozon.ru/product/akkumulyator-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1579942020/?asb=Xz%252ByJ4oVWzpTjNLN9OtEZa%252Fyt5LSYUMuO17H6xq%252Fv1U%253D&amp;asb2=bh230GUnLMTgX_zF9B_Z3Eif15NLxMQ2v_aUsYgAAhUJHOlLtQZGJePAHHW8ILrg&amp;avtc=1&amp;avte=2&amp;avts=1725438336&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/akkumulyator-brait-li-ion-20v-8-0ach-slayder-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1625607293/?asb=mXqqCM5smlq19ZjMTOIK%252Fi%252BZdDI8xLA0iP5pHTzGq18%253D&amp;asb2=4RFLdGYp3kg83N89y_lbOSxYzRFJfsSyLwjpaLD7WH7rr8Mq5lAj6S6SqYr-AmgvlQ3w_7Cl8q7BnpdZaz7MAg&amp;avtc=1&amp;avte=4&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/akkumulyator-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1579942020/?asb=6LaNJmCHYy3xK%252B4SW1u5ZTheX4bHa4k0YCwhBw2odJA%253D&amp;asb2=xNVerlOOrmteeBQ1UhL4kEyvhE_iidKLVlHycljO5-WqEacyspxoghpeCE_DvUMVYzR-wSvESIQQ380cZ8hCaw&amp;avtc=1&amp;avte=2&amp;avts=1725003099&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
-        </is>
-      </c>
+          <t>https://www.ozon.ru/product/akkumulyator-brait-li-ion-20v-8-0ach-slayder-bb20-8pu-pro-edinaya-platforma-pu-i-publ-1625607293/?asb=GCcSFvpS6ADRqLslf6JAKj5%252FtfqlOjPSrv50JDrMy9Y%253D&amp;asb2=WgYfr2r15sb69y-BVa9ziIXBVoVlzPhHlEJYEmANAFS9b838V53NzKDmrk7Vx9gTKMKIO1BME0SkGpUuGMoGew&amp;avtc=1&amp;avte=4&amp;avts=1725438336&amp;keywords=BRAIT+%D0%90%D0%BA%D0%BA%D1%83%D0%BC%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80+BB20-8PU+PRO+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -806,6 +852,16 @@
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,82 +884,82 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?advert=qFNwexaXT-ESW-4a7rAHxu5toEvIK4Z0SfuFudzfjs4NlefwHDVO0kcLTZ9ngQCm3JTPn3ZpYEE63tz_GirDMEPt4RFEsi40MGO5yBeegzeBb1hjgdU5ZwRGtaqPaUs_synCwtV7T-KRny6_ro-SCmBnHHkdKfNtvJ7PB7jN2mYh-GMjp7YEJVHn2ViuEBg1_-lv2dPBHUAWWn0u2QDULpV3iX5CR0JYP9bdSnXlkWWOa6wPfDjKHWSoFG8PIT9ziLb8P8F2JKJleApItn5M_s7O8qU_vFcPwk_n4FNkFuk2l1IWWi9aoiNkxvtv93GYo1nDdHzQe6aW3ueZ6EBOjX1WsQ&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?advert=EYyILFexy5SvU_QCSeKgtOB74qG4hnNtmcVQoNNWv5NliM-YR_vGOgvtWQVFtmZ0mR4pbTuCk3FZMe-lI1nEbrOCjfQ_E8ATSyiDmvyywV_9yqcpu3H757TUKDfCxA2lTDPi-q_rIQ52lfAjY7uFWRer4M6VixjdpGoh9VRS0nPEnVZMV-pzgbdtFGZAZLrBTgkugQBw1Oryh2SYMn2S83uITKUG8GyD46NkpX46iwAoRj6c89R69stSfdinKU4aGbHHACm9iUvRploYMpHcLilM1nKU_8h0Do2i3DfgCqEPU8dHxBAOZpoIGnQCgPopzfCVJ4eKth0sCw2WHTnNYtK4NgnDDYolAuA56wIU6dP1itjwIHDqkyl_AuIvTjQDwLsoMIfZig&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=TVjV%252BEIGKCkztq1Wcu32AS%252FsclCld76TBR4s1tpzEHQ%253D&amp;asb2=wKZtB1dHy8n70HKHnKpS1DzoLzAf_cj6eNVJYKslmxGi07XMuJprs65LrAtaE_k1JIlZNTGe5cI8l1c3AnSwGg&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?asb=ZbPsrM0JNc524%252Bykg0sHIOrX%252BXPjU%252B92BLAJcCoUuks%253D&amp;asb2=9XWRZXwsmcxxE61PQPDVWjE1_tP7dEoDOI5cxfy0055RwfBrPaaIBWcNos-IODMCl_rmG1BsC94opaJB_HQAuw&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?asb=H8cd01UxKwRL%252FqprY1yr8%252FLRgSb%252Fay2%252BsLJNCqI5FYY%253D&amp;asb2=edS7yXyzoETOaYchbIpw4_8XrjkOK-_bUiIpGu8zQahZGK7HidAhFvwcWIAZnUPKEdR3OeoZXlb8Hv8mi47O-A&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=3bc2GRnjhOrBbgPKZU278TQ5EFkGUScLMQfRT%252FBI2YI%253D&amp;asb2=W4DTxviX2AQBkWbw8wC88EiGc01G_1vvJOAYgpHfvAdkddkwg1eXuYfRujcFLL5lCyH6kKWcGrhclZlg_2FfMQ&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=Rsg4FrFHgjICcdwVqvQ0hKOas40S2LYQdHuUCCAAOzc%253D&amp;asb2=ejLJGm6TBCdPB8dVT3Qdsmck2OeeynMoLrG6U8_xOd-ScUYhYFlfc42Ooq8d2OPBEh13WvTnXiOgzAMiGlkrsQ&amp;avtc=1&amp;avte=4&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=tVmsWEi5DfsSLznyRHNzvG6R8hE529qN9AOLeBkMi4s%253D&amp;asb2=J4BW1FaJpw7a-KrCYdtHW3TKKAY5QegM3LEavZXns6mpEJJUVw6deGWtf_At-JeUtScPnudNxW4XjAG7yRYruQ&amp;avtc=1&amp;avte=4&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=x7jmawQIrSPRco9EGHVzV2WPv7DUhhUKefEciRu%252BW%252BI%253D&amp;asb2=Ye9qGnhbX2mBDKXBFGI9YWwn5WEJ7_HlugRP6TY7TXZAUipAw5-A6fF3nPWHxUDC-86CqTC22ZuO-sc7O1ecNA&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?advert=O7utiqqIfNnkzdND4TuGekWUgsurX4LwJz7Ij3gcCiEKWdMzpbq-mKnQP1V5WK5Rl4BKV6YHvQzG-yBiCqd6oNqc5SAM5wF5IuQ3grw2lhMDZg1R9a0LDxja6mSna_X44dpBILM04yyIunl_d_KR_8c_r7qgFQYky27OdWVetHAE_lJYbQaOUTOxrRl-HQhLqZfo-WQ5VXMbfm3emIx7FHXt20FXkaVWPzqtJAt18NHjvtIe89bTqoqp5lHqn7nHRQUSzjD6TMI-U_RsRxfuCn8lIot9xuDhnURrM6q0fPWiz_m0sgxoSHobm-Qk_Pz-mHXKfQD5btCkrHaMdXUdjDi7NRP6Ls_8ZxByZWorTE0IsXIKUjbF8BE8MkmyaczR9DBx5qd4ITdSXENcyZeCy_7r8g&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=SZeUYgdYeR0UfF3vVncxyC8DLmebSVD8Jv2XmvtZN1M%253D&amp;asb2=163n_c2qvyYItQxlbS2dpO8QJR0Sp7MP3_nEcjc93nBi2DNn6OqYA34l5BXNs8NZVve2Oc8DE1Ox_d8OLHi4OA&amp;avtc=1&amp;avte=4&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=wws3wP%252FcHBkjLfQqfXKst7tLaL8S3HVPSYMfdkgoWqI%253D&amp;asb2=ncj7PJ1l8KnznSW7PL-xnubkNp_HeaRvXGXeqv1qpAdSkczBhkISTxVP_M6j6dGPD3fZ6RJzR6Lem7yNZx0ocg&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m1000-1000-vt-1103132277/?asb=FO7ygDxe7IGf5PPEnN8f72z5aRFAbPPAKR239uEf12c%253D&amp;asb2=hwangfHyMSOAEklCeuiopqdCb8JcqjFXXv6dNYaVsgl2vqVikKmOlnaXqtdFhaRTQyS-nq880-SC4e4J9EaCJQ&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-payki-rr-trub-brait-bwm-3m-800-1356633067/?asb=JIHUS2D1wEzx2VbuJd0svDSCfempnnx1xy9Z9qQnRSc%253D&amp;asb2=zSB2oKgTeGNoYyfojhH2YEVGYRF36hhI22B4awCtQtfgzhtEky4LQKGFM0QTgtn25xZHJmaSjp1IJ-M_dynYuA&amp;avtc=1&amp;avte=2&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?asb=5PpPwtYwELszhzi3POd8eBzmIImeV8rANzFL3w97nnY%253D&amp;asb2=I4eMWU49iCLl1LjO1pLeF6M_-7xcRTJxUbDnewKZQ78szuRupcRxa88eDRqv3B38oV_0G0-s1C_WrwJ6l0TIKA&amp;avtc=1&amp;avte=2&amp;avts=1725003101&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=fLiFA3l5%252FuGPmJ5O%252FM6HuiZI%252FrVEj2YDzp1GRnlRUIw%253D&amp;asb2=nPWMkD5MsqCT3kpaYdwis7oJQoTcH0zZc41ehRT8zmABiZ4bAqoUiPVe3VS_vYEtnH6Wo-wkxl9P220Ifh_euA&amp;avtc=1&amp;avte=4&amp;avts=1725438337&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?advert=QHxjIBqo5jGcPijdHB_dnZw_BC-fwPFYjH-kxgPKiYKooArVtzH1sbbsbTgC23XWbA3wUwlUNhHBB90XLXL6eInewmUCyecliVrO4xOxAwJbejw8OLYlNTrSzrumyN3mHcXdoDDj05Pnzu0qnOEQp-IBM5c5VEipfqZv8kxww-fHbiUrfqLi5wtZOjhs5A9N_DFTqclWuHna4WyFeRA53TFH-5HslvGQtsLABWy-cgAgeB10Fla9FEAwGGnWZXYgnf_KivPPb0TEN6OMyc3sLn3dRzRDfI0WQCZpettbLO-c7Feyxynie8oH8uUmBAaNAIo5N7QtLAMz7a1i7D_e4pPLtw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?advert=s8TdyOHO9zQQITTJ-qpH_VaHI-3LfqBnpWoTwSSUeVP1q979H8gbVhbGHbbjXXSXTAX1WIY6EmxFBBXQfBe7KA1Caki95ev0021sY1eH6RPQd77Zbmy6d1ernS3WItA2J_5WhvIHzpRZJ-1AaqtfOrG7S5k8chnzOlmcav28YBvaprRSv2ZIoAaxiUO6fz4vN3Y43U8Buq3zv6P-pA1FQDTbrm94dhT-aYMXQZpiI1ma6VP6_L19BQUECPve9EXuM-jLL-Vubc2kz_v8SXn6QxFnpWiVyGkp6Roeu9DknXYUelHbqE1Z-50eBzexsZYm_IblhDqezz_cJ99BBEnrxzvDExW7po2ErDGV79zXdNhMkYOc5iAhF-bPuqMje81un09AAfCsUg&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=Hkm7aCPkDg2MPsPRs02orS4Rs%252B6yx1Id%252BUxWCWv4ICo%253D&amp;asb2=JabovurUu9BddwrNbO8K2bzCzihLWnYnct63kAOrJRl3hcKfsG-jK037r_g2FDVkVV2kelaq5Dvch_uHHwTpBQ&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?asb=Z4EICGFz%252FrhdKN%252F6qaBde9knNGqTP9XWVCJOucsTlO8%253D&amp;asb2=wv_sXVlhpauH3bbp2KTT_0AMCpUL3YtV5FenqIN4fy4ZAH-vPTKFxNSEeldI2tmMeSpC5RdHCBfZPl4mSjxwqw&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-3r800-800-vt-1103095589/?asb=J%252BrH5k60svYPkLBTe2f4%252Bh8ioincpgcEFbyQCWU3Seg%253D&amp;asb2=3m7z-wkoV8ZgnfS0EJ9fIPWNTQlqEsq-bCx1cZEESKadUrgWCtmomB6MbzeAcgerW3gbUQVrTadUK5vk0djXSw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=5qDfb2DCpRz9h%252BoOQClMHPyW%252BtS%252FSEEsJm24vVtYm94%253D&amp;asb2=QzmRlkzR7O2PVQIrT5HuBEhlMCWdItQdp-5Fqi8STMWRt0bfLjKLuxf8vIJPH_7SaQ4KgruoA9homV5ueY86wA&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=%252FnjXf7PXMOI0ch8hIP6od3CFHZ%252BKecrFG%252Fe6ydbJdlc%253D&amp;asb2=HFUqQCDS1gb9M-T2EvwWiRl_Ib5LyLF0yh9ROmPXRN5cn1udq1_Vg96GhyyIpzXzF59iObp1-L1pJbQd8smMyQ&amp;avtc=1&amp;avte=4&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=J0W9HuQ7HgkdGJDqv2jNgBpqgXEjHFytvPUegL0uv20%253D&amp;asb2=uVFpyO6G0xWl0VLKkf1ES1FASb7Gg6PnpLJanIw2aDELZKfPXaXzlxGKx_dMo7Jklj5UQb3sbFvK3EHqMO9uJg&amp;avtc=1&amp;avte=4&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=KzbZiXnBCbsTT5ISKwbJwDmaLqAQ5%252BjpoEvheWWZbOg%253D&amp;asb2=9yUOrMS8Xox_YHMqhZ76GDC-LNz8DjgDXRsvqBSTqwwmmHg6CfmyQmlWj8UhEK4kQlv6sLY3KPLiVdID8u-gKA&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?advert=vivekwuuflSYn6cF9aSe9zwsJJvQtrxZNQu9f8wI__jLQbj38wSkpnuC7zOWc5jSnh5LyiqEGGgtHJXw3oDCypTz_stqju9AMEaU6a2zwChitc1sizFPRfhf3EiKVsJp8g5-1aK922yVu0lK6MbB5fgLhceYpn0fJ_L_q6NG4-IOzRiJztRB1Xsq-HSl92ZFxDMKPCm0tqZ5y8-psvXKJ9qyRwnoFWh7nwF_JAh4kuzCRmhFByVqYtPYjehK00FtkAILrQr6xd3RGwgO6C9BSPLcYcwOqBTxds8ytQ6E7Z6oiI14rjYt5bAP9rwnliV8u10rJ6vig6YHnN9q1rDlZQGl_zwCg526k0JSVbFWtWUN-VYehcHm1TJtEOq8f9bIpce3YoWvIuOWQom_vrkRrVx2UA&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=t2%252FWMA9ti7QY4VELMybIEtgh2utk%252Bd2ACTqwg8YL0Lw%253D&amp;asb2=tsPPdWigO0k1e7HBhQzLOZ4cMZYk3CSeuElW8eO1HVRzgvVQW02f7ETIu2zq0MLn3hf418Ix2UXcNzW8_C6oWA&amp;avtc=1&amp;avte=4&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=5lEeqHZML%252BDg3bftyjONLoz67tCSuvibvhDBTRdiyuU%253D&amp;asb2=TBDl-m6NE0E1CgfSwvduSCVu4cuSs4lEVN-z4LniRV9rJvEX0GGKlHavgbfibESFj9CVsPxwO73GommETTsHdg&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m1000-1000-vt-1103132277/?asb=%252FmEyf0ucnzrW4IJnFg4EXDWKK29%252FPvNdc8fcXoFYQ2A%253D&amp;asb2=pMQUENQhBAhgjLt7ZwmStIOwKxKOJNCnxxNwbDZjF7FGqrvhEKaFyO1jUTk3A_NUoBj6exkH5WwDMqDcxhivHw&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-payki-rr-trub-brait-bwm-3m-800-1356633067/?asb=KN9%252FGmdK7zH8HRabQJKmsBzpRJFjgn7Ilmzj5a%252FIm74%253D&amp;asb2=nxe5x8B419_e67MpK3huvGeYn2IUfFIK65HFMWp3tGX2HPaNJ_cn5RcWSRRzGp19wXIYFRdEBkTB2MpKe2A9Xg&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-i-fitinga-brait-bwm-6m2000-2000-1103165544/?asb=trQEeYm7%252F9%252B8E5IqlwaM8tuFkfwZS%252FtSybqKx4cJ0LE%253D&amp;asb2=OdM2Cm4m8Gkstx90CWM6FVhVSmz6qm7HIerx8M_cwThrsVtMML5n_ZPtjl6ZphQ9l1l3IQTfJZMSQ1w7IITTcQ&amp;avtc=1&amp;avte=2&amp;avts=1725003103&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3p800-moshchnost-800-vt-220-v-diametr-svarki-32-540277015/?asb=7%252FGBkQEB69S9azO2CcYGES7hH0vdvjG5KLDjsCJoE88%253D&amp;asb2=QY4DRkLd7Wwr46hKmP5yferhpx1RqM2GZlH1jIs1R-pGK-S43gtME-TCWU9PpvqHoYuj5mZZMl8Q3z_E7r_dVg&amp;avtc=1&amp;avte=4&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -970,6 +1026,46 @@
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="n">
+        <v>984</v>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-brait-bwm-3m800-528163994/?asb=Z4EICGFz%252FrhdKN%252F6qaBde9knNGqTP9XWVCJOucsTlO8%253D&amp;asb2=wv_sXVlhpauH3bbp2KTT_0AMCpUL3YtV5FenqIN4fy4ZAH-vPTKFxNSEeldI2tmMeSpC5RdHCBfZPl4mSjxwqw&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="CI3" t="n">
+        <v>1108</v>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-pvh-trub-payalnik-dlya-polipropilenovyh-trub-brait-bwm-3m800-800-vt-nasadki-20-1103079269/?asb=5qDfb2DCpRz9h%252BoOQClMHPyW%252BtS%252FSEEsJm24vVtYm94%253D&amp;asb2=QzmRlkzR7O2PVQIrT5HuBEhlMCWdItQdp-5Fqi8STMWRt0bfLjKLuxf8vIJPH_7SaQ4KgruoA9homV5ueY86wA&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="CK3" t="n">
+        <v>1055</v>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-brait-bwm-3m800-789792309/?asb=J0W9HuQ7HgkdGJDqv2jNgBpqgXEjHFytvPUegL0uv20%253D&amp;asb2=uVFpyO6G0xWl0VLKkf1ES1FASb7Gg6PnpLJanIw2aDELZKfPXaXzlxGKx_dMo7Jklj5UQb3sbFvK3EHqMO9uJg&amp;avtc=1&amp;avte=4&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="CM3" t="n">
+        <v>1122</v>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-svarki-plastikovyh-trub-bwm-3m800-884042523/?asb=5lEeqHZML%252BDg3bftyjONLoz67tCSuvibvhDBTRdiyuU%253D&amp;asb2=TBDl-m6NE0E1CgfSwvduSCVu4cuSs4lEVN-z4LniRV9rJvEX0GGKlHavgbfibESFj9CVsPxwO73GommETTsHdg&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
+      <c r="CO3" t="n">
+        <v>1071</v>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/apparat-dlya-payki-rr-trub-brait-bwm-3m-800-1356633067/?asb=KN9%252FGmdK7zH8HRabQJKmsBzpRJFjgn7Ilmzj5a%252FIm74%253D&amp;asb2=nxe5x8B419_e67MpK3huvGeYn2IUfFIK65HFMWp3tGX2HPaNJ_cn5RcWSRRzGp19wXIYFRdEBkTB2MpKe2A9Xg&amp;avtc=1&amp;avte=2&amp;avts=1725438339&amp;keywords=BRAIT+%D0%90%D0%BF%D0%BF%D0%B0%D1%80%D0%B0%D1%82+BWM-3M800</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
